--- a/STM32ライトレの購入表.xlsx
+++ b/STM32ライトレの購入表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Documents\Nucleoライトレ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kt33_\Documents\Mice\linetrace_l432\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34544D4C-C658-415B-A028-2E8D73F1318B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A6757-4816-411B-B20B-DC0F7952162E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27735" yWindow="1215" windowWidth="18870" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>総称</t>
   </si>
@@ -440,6 +441,10 @@
       </rPr>
       <t>キャビネット下段</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -905,11 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -923,6 +923,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1244,7 +1249,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1354,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1373,7 +1378,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1443,34 +1448,34 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>120</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="32">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="13">
@@ -1491,10 +1496,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="9">
@@ -1507,15 +1512,15 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -1534,7 +1539,9 @@
       <c r="F12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="44" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
